--- a/VerveStacks_FRA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_FRA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F3CD91-01A1-43F7-B468-6EC8F3F385A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA474C7-4064-4154-8EFA-5F7E72FCD19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_FRA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_FRA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF59E17-E1D5-463A-BA66-FF0AE5C60F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE94330-ABD6-4435-B2AF-AD3F4804D219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_FRA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_FRA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE94330-ABD6-4435-B2AF-AD3F4804D219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A32ED74-F5BD-468A-B0AB-F3A781BE31A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_FRA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_FRA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A32ED74-F5BD-468A-B0AB-F3A781BE31A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDF985A-EB2E-4A02-B6B3-04C73A338A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_FRA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_FRA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDF985A-EB2E-4A02-B6B3-04C73A338A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0133360-A60F-430B-879F-8F5B33A1E664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
